--- a/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Float,Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select id,gmt from $schema17 where gmt = ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +251,10 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/expectedresult/ps_dql_008.csv</t>
+  </si>
+  <si>
+    <t>Double,Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,8 +642,9 @@
     <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -689,7 +690,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -716,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>15</v>
@@ -724,7 +725,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -751,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>9</v>
@@ -759,7 +760,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -783,10 +784,10 @@
         <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>9</v>
@@ -794,7 +795,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -818,10 +819,10 @@
         <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>9</v>
@@ -829,7 +830,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -856,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>9</v>
@@ -864,7 +865,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -891,7 +892,7 @@
         <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>9</v>
@@ -899,7 +900,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -923,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>9</v>
@@ -934,7 +935,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -952,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>9</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
@@ -629,15 +629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.375" style="1" customWidth="1"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/sql_ps_dql_cases.xlsx
@@ -253,7 +253,7 @@
     <t>src/test/resources/io.dingodb.test/testdata/cases/prepareStatement/expectedresult/ps_dql_008.csv</t>
   </si>
   <si>
-    <t>Double,Double</t>
+    <t>Float,Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
